--- a/GoldenMeasure/hashing.xlsx
+++ b/GoldenMeasure/hashing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\OneDrive\Documents\2021\EEE4120F\Yoda\GoldenMeasure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC27FB5D-22EC-48B3-98AB-391B29AB5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109C2AC-9AF8-4D3C-8BE2-037CB2AAEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0B6A7BD-2357-4768-8B26-75BEFA56A2DE}"/>
+    <workbookView xWindow="-24120" yWindow="1515" windowWidth="24240" windowHeight="13140" xr2:uid="{D0B6A7BD-2357-4768-8B26-75BEFA56A2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>

--- a/GoldenMeasure/hashing.xlsx
+++ b/GoldenMeasure/hashing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\OneDrive\Documents\2021\EEE4120F\Yoda\GoldenMeasure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A109C2AC-9AF8-4D3C-8BE2-037CB2AAEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7529EA6-6D1A-4B4E-BB18-DA1C9D3325E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1515" windowWidth="24240" windowHeight="13140" xr2:uid="{D0B6A7BD-2357-4768-8B26-75BEFA56A2DE}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>taken as an avergae of 10 runs per character sizer</t>
   </si>
   <si>
-    <t>chacter was reapeaded a</t>
+    <t>chacter was random lowercase letter concatinated to previous letter</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
